--- a/milfoil_app/Herbicide_response_table.xlsx
+++ b/milfoil_app/Herbicide_response_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleywolfe/Documents/milfoil_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870C59BC-EF85-F943-A491-963D5DE0E06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2467FE-7C38-AD4B-9806-79BDC070162B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{0D5F135C-3651-DD43-AA6C-7580DD447B7D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{0D5F135C-3651-DD43-AA6C-7580DD447B7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Microsat_ID</t>
   </si>
@@ -59,12 +59,6 @@
     <t>H_MISGP_231</t>
   </si>
   <si>
-    <t>Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.</t>
-  </si>
-  <si>
-    <t>Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.</t>
-  </si>
-  <si>
     <t>H_MISGP_187</t>
   </si>
   <si>
@@ -89,22 +83,164 @@
     <t>H_MYR_7905</t>
   </si>
   <si>
-    <t>H_MYR_1799</t>
-  </si>
-  <si>
     <t>H_MYR_11345</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Herbicide assays performed in the Thum lab for this strain, have shown this strain is fluridone resistant and does not respond well when treated with fluridone. We recommend not using fluridone if this strain is present in your lake. Please see Chorak and Thum 2020, and Berger et al 2012.</t>
-  </si>
-  <si>
-    <t>Herbicide assays performed in the Thum lab for this strain, have shown this strain is fluridone resistant and does not respond well when treated with fluridone. We recommend not using fluridone if this strain is present in your lake. Please see Chorak and Thum 2020, and Berger et al. 2012.</t>
-  </si>
-  <si>
-    <t>Herbicide assays performed in the Thum lab for this strain, show the strain to be resistant to 2,4-D. We recommend not using 2,4-D if this strain is present in your lake. When available, please see Hoff et al. in revision.</t>
+    <t>E_MISGP_1863</t>
+  </si>
+  <si>
+    <t>H_MISGP_1799</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = E_MISGP_1802&gt;E_MISGP_1802&lt;/h3&gt;&lt;/P&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = E_MISGP_1802&gt;E_MISGP_1802&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = E_MISGP_380&gt;E_MISGP_380&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;h2&gt;
+&lt;p&gt;&lt;h3 id = E_MISGP_380&gt;E_MISGP_380&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, have shown this strain is fluridone resistant and does not respond well when treated with fluridone. We recommend not using fluridone if this strain is present in your lake. Please see &lt;a href = 'https://doi.org/10.1017/inp.2020.34'&gt;Chorak and Thum 2020.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = E_MISGP_734&gt;E_MISGP_734&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = E_MISGP_734&gt;E_MISGP_734&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MISGP_187&gt;H_MISGP_187&lt;/h3&gt;&lt;p&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MISGP_187&gt;H_MISGP_187&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MISGP_249&gt;H_MISGP_249&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, have shown this strain is fluridone resistant and does not respond well when treated with fluridone. We recommend not using fluridone if this strain is present in your lake. Please see &lt;a href = 'https://doi.org/10.1017/inp.2020.34'&gt;Chorak and Thum 2020 &lt;/a&gt; and &lt;a href = 'https://doi.org/10.1614/WS-D-14-00085.1'&gt;Berger et al. 2012&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MISGP_249&gt;H_MISGP_249&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MISGP_464&gt;H_MISGP_464&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MISGP_464&gt;H_MISGP_464&lt;/h3&gt;&lt;/P&gt;
+&lt;p&gt;At this time, the 2,4-D herbicide response for this strain is unknown.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MISGP_518&gt;H_MISGP_518&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MISGP_518&gt;H_MISGP_518&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MYR_10199&gt;H_MYR_10199&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MYR_10199&gt;H_MYR_10199&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MYR_4866&gt;H_MYR_4866&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MYR_4866&gt;H_MYR_4866&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MYR_5016&gt;H_MYR_5016&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MYR_5016&gt;H_MYR_5016&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be resistant to 2,4-D. We recommend not using 2,4-D if this strain is present in your lake. Hoff et al. unpublished data.&lt;p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MYR_7905&gt;H_MYR_7905&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;At this time, the 2,4-D herbicide response for this strain is unknown.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MYR_7905&gt;H_MYR_7905&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;&lt;h3&gt;H_MYR_7905&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MYR_11345&gt;H_MYR_11345&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MYR_11345&gt;H_MYR_11345&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;At this time, the 2,4-D herbicide response for this strain is unknown.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = E_MISGP_1863&gt;E_MISGP_1863&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = E_MISGP_1863&gt;E_MISGP_1863&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MISGP_1799&gt;H_MISGP_1799&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MISGP_1799&gt;H_MISGP_1799&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MISGP_231&gt;H_MISGP_231&lt;/h3&gt;&lt;p&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MISGP_231&gt;H_MISGP_231&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -473,18 +609,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A656422D-075E-D341-ABA8-E8A10BAE04A2}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="36.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39" style="1" customWidth="1"/>
+    <col min="4" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="82" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -498,18 +636,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="221" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="238" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="204" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -517,139 +655,150 @@
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="238" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="238" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="187" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/milfoil_app/Herbicide_response_table.xlsx
+++ b/milfoil_app/Herbicide_response_table.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleywolfe/Documents/milfoil_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2467FE-7C38-AD4B-9806-79BDC070162B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD15E98-93BC-1141-B510-6D91AB6F477C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{0D5F135C-3651-DD43-AA6C-7580DD447B7D}"/>
+    <workbookView xWindow="11780" yWindow="820" windowWidth="17860" windowHeight="17920" xr2:uid="{0D5F135C-3651-DD43-AA6C-7580DD447B7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Microsat_ID</t>
   </si>
@@ -83,68 +83,10 @@
     <t>H_MYR_7905</t>
   </si>
   <si>
-    <t>H_MYR_11345</t>
-  </si>
-  <si>
     <t>E_MISGP_1863</t>
   </si>
   <si>
     <t>H_MISGP_1799</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
-&lt;p&gt;&lt;h3 id = E_MISGP_1802&gt;E_MISGP_1802&lt;/h3&gt;&lt;/P&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
-&lt;p&gt;&lt;h3 id = E_MISGP_1802&gt;E_MISGP_1802&lt;/h3&gt;&lt;/p&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
-&lt;p&gt;&lt;h3 id = E_MISGP_380&gt;E_MISGP_380&lt;/h3&gt;&lt;/p&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Fluridone Response&lt;h2&gt;
-&lt;p&gt;&lt;h3 id = E_MISGP_380&gt;E_MISGP_380&lt;/h3&gt;&lt;/p&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, have shown this strain is fluridone resistant and does not respond well when treated with fluridone. We recommend not using fluridone if this strain is present in your lake. Please see &lt;a href = 'https://doi.org/10.1017/inp.2020.34'&gt;Chorak and Thum 2020.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
-&lt;p&gt;&lt;h3 id = E_MISGP_734&gt;E_MISGP_734&lt;/h3&gt;&lt;/p&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
-&lt;p&gt;&lt;h3 id = E_MISGP_734&gt;E_MISGP_734&lt;/h3&gt;&lt;/p&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
-&lt;p&gt;&lt;h3 id = H_MISGP_187&gt;H_MISGP_187&lt;/h3&gt;&lt;p&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
-&lt;p&gt;&lt;h3 id = H_MISGP_187&gt;H_MISGP_187&lt;/h3&gt;&lt;/p&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
-&lt;p&gt;&lt;h3 id = H_MISGP_249&gt;H_MISGP_249&lt;/h3&gt;&lt;/p&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, have shown this strain is fluridone resistant and does not respond well when treated with fluridone. We recommend not using fluridone if this strain is present in your lake. Please see &lt;a href = 'https://doi.org/10.1017/inp.2020.34'&gt;Chorak and Thum 2020 &lt;/a&gt; and &lt;a href = 'https://doi.org/10.1614/WS-D-14-00085.1'&gt;Berger et al. 2012&lt;/a&gt;.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
-&lt;p&gt;&lt;h3 id = H_MISGP_249&gt;H_MISGP_249&lt;/h3&gt;&lt;/p&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
-&lt;p&gt;&lt;h3 id = H_MISGP_464&gt;H_MISGP_464&lt;/h3&gt;&lt;/p&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;p&gt;</t>
   </si>
   <si>
     <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
@@ -153,107 +95,243 @@
   </si>
   <si>
     <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
-&lt;p&gt;&lt;h3 id = H_MISGP_518&gt;H_MISGP_518&lt;/h3&gt;&lt;/p&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
-&lt;p&gt;&lt;h3 id = H_MISGP_518&gt;H_MISGP_518&lt;/h3&gt;&lt;/p&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
-&lt;p&gt;&lt;h3 id = H_MYR_10199&gt;H_MYR_10199&lt;/h3&gt;&lt;/p&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
-&lt;p&gt;&lt;h3 id = H_MYR_10199&gt;H_MYR_10199&lt;/h3&gt;&lt;/p&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
-&lt;p&gt;&lt;h3 id = H_MYR_4866&gt;H_MYR_4866&lt;/h3&gt;&lt;/p&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
-&lt;p&gt;&lt;h3 id = H_MYR_4866&gt;H_MYR_4866&lt;/h3&gt;&lt;/p&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
-&lt;p&gt;&lt;h3 id = H_MYR_5016&gt;H_MYR_5016&lt;/h3&gt;&lt;/p&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
-&lt;p&gt;&lt;h3 id = H_MYR_5016&gt;H_MYR_5016&lt;/h3&gt;&lt;/p&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be resistant to 2,4-D. We recommend not using 2,4-D if this strain is present in your lake. Hoff et al. unpublished data.&lt;p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
 &lt;p&gt;&lt;h3 id = H_MYR_7905&gt;H_MYR_7905&lt;/h3&gt;&lt;/p&gt;
 &lt;p&gt;At this time, the 2,4-D herbicide response for this strain is unknown.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
-&lt;p&gt;&lt;h3 id = H_MYR_7905&gt;H_MYR_7905&lt;/h3&gt;&lt;/p&gt;
-&lt;p&gt;&lt;h3&gt;H_MYR_7905&lt;/h3&gt;&lt;/p&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
-&lt;p&gt;&lt;h3 id = H_MYR_11345&gt;H_MYR_11345&lt;/h3&gt;&lt;/p&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
-&lt;p&gt;&lt;h3 id = H_MYR_11345&gt;H_MYR_11345&lt;/h3&gt;&lt;/p&gt;
+    <t>H_MISGP_1443</t>
+  </si>
+  <si>
+    <t>H_MISGP_1861</t>
+  </si>
+  <si>
+    <t>H_MYR_10920</t>
+  </si>
+  <si>
+    <t>H_MISGP_1528</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MISGP_1861&gt;H_MISGP_1861&lt;/h3&gt;&lt;/p&gt;
 &lt;p&gt;At this time, the 2,4-D herbicide response for this strain is unknown.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MYR_10920&gt;H_MYR_10920&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;At this time, the 2,4-D herbicide response for this strain is unknown.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MISGP_1528&gt;H_MISGP_1528&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;At this time, the 2,4-D herbicide response for this strain is unknown.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = E_MISGP_1802&gt;E_MISGP_1802&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = E_MISGP_380&gt;E_MISGP_380&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = E_MISGP_734&gt;E_MISGP_734&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MISGP_187&gt;H_MISGP_187&lt;/h3&gt;&lt;p&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MISGP_249&gt;H_MISGP_249&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MISGP_518&gt;H_MISGP_518&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MYR_10199&gt;H_MYR_10199&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MYR_4866&gt;H_MYR_4866&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MYR_5016&gt;H_MYR_5016&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, show the strain to be resistant to 2,4-D. We recommend not using 2,4-D if this strain is present in your lake. Hoff et al. unpublished data.&lt;p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
 &lt;p&gt;&lt;h3 id = E_MISGP_1863&gt;E_MISGP_1863&lt;/h3&gt;&lt;/p&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
-&lt;p&gt;&lt;h3 id = E_MISGP_1863&gt;E_MISGP_1863&lt;/h3&gt;&lt;/p&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
 &lt;p&gt;&lt;h3 id = H_MISGP_1799&gt;H_MISGP_1799&lt;/h3&gt;&lt;/p&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
-&lt;p&gt;&lt;h3 id = H_MISGP_1799&gt;H_MISGP_1799&lt;/h3&gt;&lt;/p&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;p&gt;</t>
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;p&gt;</t>
   </si>
   <si>
     <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
 &lt;p&gt;&lt;h3 id = H_MISGP_231&gt;H_MISGP_231&lt;/h3&gt;&lt;p&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
-&lt;p&gt;&lt;h3 id = H_MISGP_231&gt;H_MISGP_231&lt;/h3&gt;&lt;/p&gt;
-&lt;p&gt;Herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MISGP_231&gt;H_MISGP_231&lt;/h3&gt;&lt;p&gt;
+&lt;p&gt;Dose response erbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to 2,4-D. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = Flur_E_MISGP_1802&gt;E_MISGP_1802&lt;/h3&gt;&lt;/P&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;h2&gt;
+&lt;p&gt;&lt;h3 id = Flur_E_MISGP_380&gt;E_MISGP_380&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, have shown this strain is fluridone resistant and does not respond well when treated with fluridone. We recommend not using fluridone if this strain is present in your lake. Please see &lt;a href = 'https://doi.org/10.1017/inp.2020.34'&gt;Chorak and Thum 2020.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = Flur_E_MISGP_734&gt;E_MISGP_734&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = Flur_H_MISGP_187&gt;H_MISGP_187&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = Flur_H_MISGP_249&gt;H_MISGP_249&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, have shown this strain is fluridone resistant and does not respond well when treated with fluridone. We recommend not using fluridone if this strain is present in your lake. Please see &lt;a href = 'https://doi.org/10.1017/inp.2020.34'&gt;Chorak and Thum 2020 &lt;/a&gt; and &lt;a href = 'https://doi.org/10.1614/WS-D-14-00085.1'&gt;Berger et al. 2012&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = Flur_H_MISGP_464&gt;H_MISGP_464&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = Flur_H_MISGP_518&gt;H_MISGP_518&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = Flur_H_MYR_10199&gt;H_MYR_10199&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = Flur_H_MYR_4866&gt;H_MYR_4866&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = Flur_H_MYR_5016&gt;H_MYR_5016&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = Flur_H_MYR_7905&gt;H_MYR_7905&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = Flur_E_MISGP_1863&gt;E_MISGP_1863&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = Flur_H_MISGP_1799&gt;H_MISGP_1799&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Dose response herbicide dose response assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = Flur_H_MISGP_231&gt;H_MISGP_231&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>N_MYR_15319</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = Flur_H_MISGP_457&gt;H_MISGP_457&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to conintue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>H_MISGP_457</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = H_MISGP_457&gt;H_MISGP_457&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;At this time, the 2,4-D herbicide response for this strain is unknown.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = Flur_N_MYR_15319&gt;N_MYR_15319&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;At this time, the fluridone herbicide response for this strain is unknown.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;2,4-D Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = N_MYR_15319&gt;N_MYR_15319&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab and Newman lab for this strain, show the strain to be resistant to 2,4-D. We recommend not using 2,4-D if this strain is present in your lake. Hoff et al. unpublished data.&lt;p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = Flur_H_MISGP_1443&gt;H_MISGP_1443&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, show the fluridone herbicide response for this strain is of concern at 3ppb. Please contact Ashley &lt;a href = 'mailto:ashley.wolfe3@montana.edu'&gt;ashley.wolfe3@montana.edu&lt;/a&gt; for further explanation and detail.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = Flur_H_MISGP_1861&gt;H_MISGP_1861&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Dose response herbicide assays performed in the Thum lab for this strain, as well as reliable in field manager reports, show the fluridone herbicide response for this strain is of concern at 3ppb and 6ppb. Please contact Ashley &lt;a href = 'mailto:ashley.wolfe3@montana.edu'&gt;ashley.wolfe3@montana.edu&lt;/a&gt; for further explanation and detail.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = Flur_H_MYR_10920&gt;H_MYR_10920&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;A small scale dose response herbicide assay performed in the Thum lab for this strain, as well as reliable in field manager reports, show the fluridone herbicide response for this strain is of concern at 6ppb. Please contact Ashley &lt;a href = 'mailto:ashley.wolfe3@montana.edu'&gt;ashley.wolfe3@montana.edu&lt;/a&gt; for further explanation and detail.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Fluridone Response&lt;/h2&gt;
+&lt;p&gt;&lt;h3 id = Flur_H_MISGP_1528&gt;H_MISGP_1528&lt;/h3&gt;&lt;/p&gt;
+&lt;p&gt;Small scale dose response herbicide assays performed in the Thum lab for this strain, show the strain to be sensitive in response to fluridone. However, it is always good to continue to monitor the efficacy of treatment in your lake.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF3F3844"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -287,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -295,6 +373,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -313,9 +395,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -353,7 +435,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -459,7 +541,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -601,7 +683,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -609,18 +691,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A656422D-075E-D341-ABA8-E8A10BAE04A2}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39" style="1" customWidth="1"/>
-    <col min="4" max="7" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="63.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="66" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49" style="1" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="1"/>
     <col min="8" max="8" width="82" style="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -636,169 +719,225 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="238" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="208" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="198" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="252" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="217" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
